--- a/data/long_razon/P24_5-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_5-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-27,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>225,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>104,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>137,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-63,64; 65,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,8; 649,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 85,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,32; 196,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 60,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 47,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,04; 249,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 37,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 11,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 27,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 51,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 78,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,57; -1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 40,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 27,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-20,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-28,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-19,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>59,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-24,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 139,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 9,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,99; 103,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,05; -10,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,15; -1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,95; 92,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -11,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,98; -0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 77,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 18,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,19; 82,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 6,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 70,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 7,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_5-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_5-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6075742683129907</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.300044984494359</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1396413313183424</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.176370078931141</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0.02248070569178456</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.127959235860438</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.2287105934875522</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1756261865821693</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>-0.2492769686508526</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.173745256942746</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.08668498346166523</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.5196552533819648</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8643498056184439</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1155198242362792</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4652217043899816</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1208475648284899</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.4337119689956689</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3507609716487316</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.0899250251547038</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2453253768681304</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.5325760890513686</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.4371705748818481</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.1455183376041198</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.02385976711407787</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.0356565418696522</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.20589477039341</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.3743393681190754</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.629366786777158</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>0.7054775778401227</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.34936027263991</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.6882222574839827</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.833063734429877</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.1783434709722105</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.136662360700789</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.4064498316485087</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.405493248883507</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1811874702038743</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2156500241113883</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.04450091716626032</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3069399978119542</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.1287899508086213</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4234706038361322</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.01365482828591595</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.04505792009794449</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>-0.01033956151033189</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.09067708021896423</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.02838244361883935</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.1822584474496527</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2946665504034282</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4701815299656107</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.241452571587712</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5174550445328369</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.3626167167505686</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.075827512168332</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1812474213295971</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.264621478219274</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.2354943309511157</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.1156570107771507</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1417544518178872</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.3494739221767993</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.7992545229870667</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1089038877646653</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4036417206650513</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.00461470394206883</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>0.13702749662295</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.8338910472203219</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2613860907404882</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.240772990107913</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>0.2691985933787544</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.3955218563565372</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2331619005318068</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.003211049283857306</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.350664885051175</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.791459589719711</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2073559558908855</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1294876411777054</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.2652186171865121</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.605567208731194</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2937096475068446</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2233658554392076</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.2990082657145717</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.6802448859542622</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.2573060940572016</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.1830638635405071</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5721260735881463</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1593093455498167</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4271486940521315</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.405055615189111</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.4566274289740313</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.2655045589193449</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4330622251039555</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3934227662207074</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.4441821398794142</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.3334309938691219</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.3776044854606361</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.3355494018069888</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.05507916921971487</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.721238295357249</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.1038548383001957</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2558928816612778</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.00515987697015769</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.072829112616918</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.1300221316869656</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.02954431266599401</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.09287829043204385</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.083006237659625</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>-0.1050712878376118</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>-0.01484078476398419</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1456416410510547</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1871904852212482</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.07467569902953962</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.07295298406381699</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.1644333322601963</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5991106493308432</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.06244458038949462</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.07349044180685527</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>-0.1570308977235394</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4131519784918216</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.06782668122158765</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.07324287548209785</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.382130520525828</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1159817407265608</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2457982286631702</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2897133182614036</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.3153453785766352</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.3591598673849308</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1935003421930918</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2188167649552528</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.284559485751505</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2238721516633904</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1724975773199149</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.1984944882813597</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.1363374535356445</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5213907654820655</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1335275776845225</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2311655965130883</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>0.006602261582639157</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.8925183056978124</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.06933768380658936</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.0808694544346058</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>-0.00644994716657249</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.6429933819884337</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.04751219995908445</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.08394290798891153</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
